--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:10:45+00:00</t>
+    <t>2023-10-18T09:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:59:58+00:00</t>
+    <t>2023-10-30T06:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T06:51:40+00:00</t>
+    <t>2023-10-30T14:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T14:50:06+00:00</t>
+    <t>2023-10-31T07:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T07:29:19+00:00</t>
+    <t>2023-11-02T14:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:53:48+00:00</t>
+    <t>2023-11-02T15:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T15:29:05+00:00</t>
+    <t>2023-11-02T16:07:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:07:15+00:00</t>
+    <t>2023-11-02T16:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:13:26+00:00</t>
+    <t>2023-11-06T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T13:21:24+00:00</t>
+    <t>2023-11-13T14:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:25:45+00:00</t>
+    <t>2023-11-13T15:09:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:09:52+00:00</t>
+    <t>2023-11-13T17:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T17:03:00+00:00</t>
+    <t>2023-11-14T19:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T19:51:51+00:00</t>
+    <t>2023-11-28T16:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T16:40:15+00:00</t>
+    <t>2023-11-29T13:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:44:06+00:00</t>
+    <t>2023-11-29T14:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:01:28+00:00</t>
+    <t>2023-11-29T14:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:08:43+00:00</t>
+    <t>2023-11-29T14:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
